--- a/Tables with Data/ALPS_TargetSetting.xlsx
+++ b/Tables with Data/ALPS_TargetSetting.xlsx
@@ -1,173 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23312"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Jobs\ALPS 2019\Tables with Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rwsservices-my.sharepoint.com/personal/robin_wilson_robindigital_co_uk/Documents/Documents/FEA/West London College/Jobs/ALPS Level 3 Target Grade Generator/Tables with Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DEF4752-535E-4000-A016-640CCC56DA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11145" xr2:uid="{3B21410F-48B6-4B75-B10B-442C4C6E916E}"/>
   </bookViews>
   <sheets>
-    <sheet name="ALPS_TargetSetting" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="48">
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>MinPoints</t>
+  </si>
+  <si>
+    <t>MaxPoints</t>
+  </si>
+  <si>
+    <t>TargetGrade</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>90-credit Dip/Found Dip</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>DM/MM</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>D*D/DD</t>
+  </si>
+  <si>
+    <t>D*D*</t>
+  </si>
+  <si>
+    <t>A Level</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C/D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B/C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A*/A</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>D/M</t>
+  </si>
   <si>
     <t>D*</t>
   </si>
   <si>
+    <t>Diploma</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>DD/DM</t>
+  </si>
+  <si>
+    <t>D*D</t>
+  </si>
+  <si>
+    <t>D*D*/D*D</t>
+  </si>
+  <si>
+    <t>Ext Cert/Intro Dip</t>
+  </si>
+  <si>
+    <t>M/P</t>
+  </si>
+  <si>
+    <t>D*/D</t>
+  </si>
+  <si>
+    <t>Ext Dip</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>MPP</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>DMM</t>
+  </si>
+  <si>
+    <t>DDM/DMM</t>
+  </si>
+  <si>
+    <t>DDM</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>D*DD</t>
+  </si>
+  <si>
+    <t>D*D*D</t>
+  </si>
+  <si>
+    <t>D*D*D*/D*D*D</t>
+  </si>
+  <si>
+    <t>D*D*D*</t>
+  </si>
+  <si>
     <t>Sub Dip/Ext Cert</t>
-  </si>
-  <si>
-    <t>D*/D</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>D/M</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>D*D*D*</t>
-  </si>
-  <si>
-    <t>Ext Dip</t>
-  </si>
-  <si>
-    <t>D*D*D*/D*D*D</t>
-  </si>
-  <si>
-    <t>D*D*D</t>
-  </si>
-  <si>
-    <t>D*DD</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>DDM</t>
-  </si>
-  <si>
-    <t>DDM/DMM</t>
-  </si>
-  <si>
-    <t>DMM</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>MPP</t>
-  </si>
-  <si>
-    <t>PPP</t>
-  </si>
-  <si>
-    <t>D*D*</t>
-  </si>
-  <si>
-    <t>Diploma</t>
-  </si>
-  <si>
-    <t>D*D*/D*D</t>
-  </si>
-  <si>
-    <t>D*D</t>
-  </si>
-  <si>
-    <t>D*D/DD</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>DD/DM</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>DM/MM</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>A*/A</t>
-  </si>
-  <si>
-    <t>A Level</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B/C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C/D</t>
-  </si>
-  <si>
-    <t>90-credit Dip/Found Dip</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>TargetGrade</t>
-  </si>
-  <si>
-    <t>MaxPoints</t>
-  </si>
-  <si>
-    <t>MinPoints</t>
-  </si>
-  <si>
-    <t>Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +249,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -245,7 +261,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -292,6 +308,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -327,6 +360,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,11 +528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90176B84-B101-47AA-B3B3-64B291FACE5D}">
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,33 +541,33 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -526,18 +576,18 @@
         <v>2.57</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>120</v>
       </c>
       <c r="F2">
-        <v>28.56</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2.58</v>
@@ -546,18 +596,18 @@
         <v>2.99</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>120</v>
       </c>
       <c r="F3">
-        <v>33.22</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -566,18 +616,18 @@
         <v>3.3</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>140</v>
       </c>
       <c r="F4">
-        <v>36.67</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>3.31</v>
@@ -586,18 +636,18 @@
         <v>3.74</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>140</v>
       </c>
       <c r="F5">
-        <v>41.56</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>3.75</v>
@@ -606,18 +656,18 @@
         <v>4.37</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>160</v>
       </c>
       <c r="F6">
-        <v>48.56</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>4.38</v>
@@ -626,18 +676,18 @@
         <v>4.75</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>160</v>
       </c>
       <c r="F7">
-        <v>52.78</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>4.76</v>
@@ -646,18 +696,18 @@
         <v>5.22</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>180</v>
       </c>
       <c r="F8">
-        <v>58</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>5.23</v>
@@ -666,18 +716,18 @@
         <v>5.66</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>190</v>
       </c>
       <c r="F9">
-        <v>62.89</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>5.67</v>
@@ -686,18 +736,18 @@
         <v>6.16</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>210</v>
       </c>
       <c r="F10">
-        <v>68.44</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>6.17</v>
@@ -706,18 +756,18 @@
         <v>6.59</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>210</v>
       </c>
       <c r="F11">
-        <v>73.22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>6.6</v>
@@ -726,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>210</v>
@@ -737,7 +787,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -746,18 +796,18 @@
         <v>3.04</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>63.33</v>
       </c>
       <c r="F13">
-        <v>33.78</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3.05</v>
@@ -766,18 +816,18 @@
         <v>3.78</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F14">
-        <v>42</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>3.79</v>
@@ -786,18 +836,18 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>72.94</v>
       </c>
       <c r="F15">
-        <v>48.44</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>4.37</v>
@@ -806,18 +856,18 @@
         <v>4.76</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>78.180000000000007</v>
       </c>
       <c r="F16">
-        <v>52.89</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>4.7699999999999996</v>
@@ -826,18 +876,18 @@
         <v>5.2</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>80</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="F17">
-        <v>57.78</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>5.21</v>
@@ -846,18 +896,18 @@
         <v>5.64</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>80</v>
+        <v>86.82</v>
       </c>
       <c r="F18">
-        <v>62.67</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>5.65</v>
@@ -866,18 +916,18 @@
         <v>6.09</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>80</v>
+        <v>91.85</v>
       </c>
       <c r="F19">
-        <v>67.67</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>6.1</v>
@@ -886,18 +936,18 @@
         <v>6.54</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>97.24</v>
       </c>
       <c r="F20">
-        <v>72.67</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>6.55</v>
@@ -906,18 +956,18 @@
         <v>6.99</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F21">
-        <v>77.67</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -926,18 +976,18 @@
         <v>7.74</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>120</v>
+        <v>112.14</v>
       </c>
       <c r="F22">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>7.75</v>
@@ -946,10 +996,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>130</v>
+        <v>125.11</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -957,7 +1007,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>-1</v>
@@ -966,7 +1016,7 @@
         <v>-1</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -977,7 +1027,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -986,18 +1036,18 @@
         <v>2.57</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>40</v>
       </c>
       <c r="F25">
-        <v>28.56</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>2.58</v>
@@ -1006,18 +1056,18 @@
         <v>2.99</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="F26">
-        <v>33.22</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1026,18 +1076,18 @@
         <v>3.3</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>50</v>
       </c>
       <c r="F27">
-        <v>36.67</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>3.31</v>
@@ -1046,18 +1096,18 @@
         <v>3.74</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>60</v>
       </c>
       <c r="F28">
-        <v>41.56</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>3.75</v>
@@ -1066,18 +1116,18 @@
         <v>4.37</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>60</v>
       </c>
       <c r="F29">
-        <v>48.56</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>4.38</v>
@@ -1086,18 +1136,18 @@
         <v>4.75</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>60</v>
       </c>
       <c r="F30">
-        <v>52.78</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>4.76</v>
@@ -1106,18 +1156,18 @@
         <v>5.22</v>
       </c>
       <c r="D31" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>70</v>
       </c>
       <c r="F31">
-        <v>58</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>5.23</v>
@@ -1126,18 +1176,18 @@
         <v>5.66</v>
       </c>
       <c r="D32" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>70</v>
       </c>
       <c r="F32">
-        <v>62.89</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>5.67</v>
@@ -1146,18 +1196,18 @@
         <v>6.16</v>
       </c>
       <c r="D33" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>70</v>
       </c>
       <c r="F33">
-        <v>68.44</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>6.17</v>
@@ -1166,18 +1216,18 @@
         <v>6.59</v>
       </c>
       <c r="D34" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>70</v>
       </c>
       <c r="F34">
-        <v>73.22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>6.6</v>
@@ -1186,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>70</v>
@@ -1197,7 +1247,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>-3</v>
@@ -1206,7 +1256,7 @@
         <v>-3</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>-3</v>
@@ -1217,7 +1267,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>-2</v>
@@ -1237,7 +1287,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>-1</v>
@@ -1246,7 +1296,7 @@
         <v>-1</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -1257,7 +1307,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1266,18 +1316,18 @@
         <v>2.57</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>180</v>
       </c>
       <c r="F39">
-        <v>28.56</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>2.58</v>
@@ -1286,18 +1336,18 @@
         <v>2.99</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E40">
         <v>200</v>
       </c>
       <c r="F40">
-        <v>33.22</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1306,18 +1356,18 @@
         <v>3.3</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E41">
         <v>220</v>
       </c>
       <c r="F41">
-        <v>36.67</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B42">
         <v>3.31</v>
@@ -1326,18 +1376,18 @@
         <v>3.74</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>240</v>
       </c>
       <c r="F42">
-        <v>41.56</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <v>3.75</v>
@@ -1346,18 +1396,18 @@
         <v>4.37</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E43">
         <v>250</v>
       </c>
       <c r="F43">
-        <v>48.56</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <v>4.38</v>
@@ -1366,18 +1416,18 @@
         <v>4.75</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E44">
         <v>260</v>
       </c>
       <c r="F44">
-        <v>52.78</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>4.76</v>
@@ -1386,18 +1436,18 @@
         <v>5.22</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E45">
         <v>260</v>
       </c>
       <c r="F45">
-        <v>58</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B46">
         <v>5.23</v>
@@ -1406,18 +1456,18 @@
         <v>5.66</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E46">
         <v>270</v>
       </c>
       <c r="F46">
-        <v>62.89</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>5.67</v>
@@ -1426,18 +1476,18 @@
         <v>6.16</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <v>280</v>
       </c>
       <c r="F47">
-        <v>68.44</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B48">
         <v>6.17</v>
@@ -1446,18 +1496,18 @@
         <v>6.59</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <v>280</v>
       </c>
       <c r="F48">
-        <v>73.22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>6.6</v>
@@ -1466,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E49">
         <v>280</v>
@@ -1477,287 +1527,287 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B50">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>-3</v>
+        <v>2.57</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E50">
-        <v>-3</v>
+        <v>53.33</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B51">
-        <v>-2</v>
+        <v>2.58</v>
       </c>
       <c r="C51">
-        <v>-2</v>
+        <v>2.99</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E51">
-        <v>-2</v>
+        <v>71.11</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>-1</v>
+        <v>3.3</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E52">
-        <v>-1</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="C53">
-        <v>2.57</v>
+        <v>3.74</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E53">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="F53">
-        <v>28.56</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>2.58</v>
+        <v>3.75</v>
       </c>
       <c r="C54">
-        <v>2.99</v>
+        <v>4.37</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E54">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="F54">
-        <v>33.22</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>4.38</v>
       </c>
       <c r="C55">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E55">
-        <v>320</v>
+        <v>104.44</v>
       </c>
       <c r="F55">
-        <v>36.67</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B56">
-        <v>3.31</v>
+        <v>4.76</v>
       </c>
       <c r="C56">
-        <v>3.74</v>
+        <v>5.22</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E56">
-        <v>360</v>
+        <v>112</v>
       </c>
       <c r="F56">
-        <v>41.56</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B57">
-        <v>3.75</v>
+        <v>5.23</v>
       </c>
       <c r="C57">
-        <v>4.37</v>
+        <v>5.66</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E57">
-        <v>360</v>
+        <v>122.5</v>
       </c>
       <c r="F57">
-        <v>48.56</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B58">
-        <v>4.38</v>
+        <v>5.67</v>
       </c>
       <c r="C58">
-        <v>4.75</v>
+        <v>6.16</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E58">
-        <v>380</v>
+        <v>125</v>
       </c>
       <c r="F58">
-        <v>52.78</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B59">
-        <v>4.76</v>
+        <v>6.17</v>
       </c>
       <c r="C59">
-        <v>5.22</v>
+        <v>6.59</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E59">
-        <v>400</v>
+        <v>131.11000000000001</v>
       </c>
       <c r="F59">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B60">
-        <v>5.23</v>
+        <v>6.6</v>
       </c>
       <c r="C60">
-        <v>5.66</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E60">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="F60">
-        <v>62.89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B61">
-        <v>5.67</v>
+        <v>-3</v>
       </c>
       <c r="C61">
-        <v>6.16</v>
+        <v>-3</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E61">
-        <v>420</v>
+        <v>-3</v>
       </c>
       <c r="F61">
-        <v>68.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B62">
-        <v>6.17</v>
+        <v>-2</v>
       </c>
       <c r="C62">
-        <v>6.59</v>
+        <v>-2</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E62">
-        <v>420</v>
+        <v>-2</v>
       </c>
       <c r="F62">
-        <v>73.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B63">
-        <v>6.6</v>
+        <v>-1</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E63">
-        <v>420</v>
+        <v>-1</v>
       </c>
       <c r="F63">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1766,18 +1816,18 @@
         <v>2.57</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E64">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="F64">
-        <v>28.56</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B65">
         <v>2.58</v>
@@ -1786,18 +1836,18 @@
         <v>2.99</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E65">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F65">
-        <v>33.22</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -1806,18 +1856,18 @@
         <v>3.3</v>
       </c>
       <c r="D66" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E66">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="F66">
-        <v>36.67</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B67">
         <v>3.31</v>
@@ -1826,18 +1876,18 @@
         <v>3.74</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E67">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="F67">
-        <v>41.56</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B68">
         <v>3.75</v>
@@ -1846,18 +1896,18 @@
         <v>4.37</v>
       </c>
       <c r="D68" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E68">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="F68">
-        <v>48.56</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B69">
         <v>4.38</v>
@@ -1866,18 +1916,18 @@
         <v>4.75</v>
       </c>
       <c r="D69" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E69">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="F69">
-        <v>52.78</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B70">
         <v>4.76</v>
@@ -1886,18 +1936,18 @@
         <v>5.22</v>
       </c>
       <c r="D70" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E70">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="F70">
-        <v>58</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B71">
         <v>5.23</v>
@@ -1906,18 +1956,18 @@
         <v>5.66</v>
       </c>
       <c r="D71" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E71">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="F71">
-        <v>62.89</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B72">
         <v>5.67</v>
@@ -1926,18 +1976,18 @@
         <v>6.16</v>
       </c>
       <c r="D72" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E72">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="F72">
-        <v>68.44</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B73">
         <v>6.17</v>
@@ -1946,18 +1996,18 @@
         <v>6.59</v>
       </c>
       <c r="D73" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E73">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="F73">
-        <v>73.22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B74">
         <v>6.6</v>
@@ -1966,12 +2016,232 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74">
+        <v>420</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75">
         <v>0</v>
       </c>
-      <c r="E74">
+      <c r="C75">
+        <v>2.57</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="F75">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76">
+        <v>2.58</v>
+      </c>
+      <c r="C76">
+        <v>2.99</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+      <c r="F76">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>3.3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>120</v>
+      </c>
+      <c r="F77">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78">
+        <v>3.31</v>
+      </c>
+      <c r="C78">
+        <v>3.74</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>120</v>
+      </c>
+      <c r="F78">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79">
+        <v>3.75</v>
+      </c>
+      <c r="C79">
+        <v>4.37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <v>120</v>
+      </c>
+      <c r="F79">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80">
+        <v>4.38</v>
+      </c>
+      <c r="C80">
+        <v>4.75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80">
+        <v>130</v>
+      </c>
+      <c r="F80">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81">
+        <v>4.76</v>
+      </c>
+      <c r="C81">
+        <v>5.22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81">
+        <v>130</v>
+      </c>
+      <c r="F81">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82">
+        <v>5.23</v>
+      </c>
+      <c r="C82">
+        <v>5.66</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82">
         <v>140</v>
       </c>
-      <c r="F74">
+      <c r="F82">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83">
+        <v>5.67</v>
+      </c>
+      <c r="C83">
+        <v>6.16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83">
+        <v>140</v>
+      </c>
+      <c r="F83">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84">
+        <v>6.17</v>
+      </c>
+      <c r="C84">
+        <v>6.59</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84">
+        <v>140</v>
+      </c>
+      <c r="F84">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85">
+        <v>6.6</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85">
+        <v>140</v>
+      </c>
+      <c r="F85">
         <v>100</v>
       </c>
     </row>
